--- a/00_Document/03_Testing/Frontend/テストケース番号作成方法.xlsx
+++ b/00_Document/03_Testing/Frontend/テストケース番号作成方法.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D5CE68-A062-4B0F-8F03-85694A8A490C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22255" windowHeight="12646"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,29 +25,35 @@
     <t>01 - 管理者</t>
   </si>
   <si>
-    <t>02　- 利用者</t>
-  </si>
-  <si>
-    <t>001　-　ムービー作成</t>
-  </si>
-  <si>
     <t>001 - テストケース番号</t>
   </si>
   <si>
-    <t>01_001_001 -&gt; 管理者　ムービー作成　テストケース1番</t>
-  </si>
-  <si>
-    <t>02_001_001 -&gt; 利用者　ムービー一覧　テストケース1番</t>
+    <t>02　- スタッフ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">001　-　管理者作成 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">002　-　スタッフ作成 </t>
+  </si>
+  <si>
+    <t>01_001_001 -&gt; 管理者　管理者作成　テストケース1番</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -353,46 +360,47 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>